--- a/taiLieu/CodeGym.xlsx
+++ b/taiLieu/CodeGym.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Module4-tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Codegym\04-module 4\taiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB80B1B-1257-4B5D-80F9-DD0375A64D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Js Module 1" sheetId="3" r:id="rId1"/>
     <sheet name="Java Module 2" sheetId="1" r:id="rId2"/>
     <sheet name="Servlet Module 3" sheetId="2" r:id="rId3"/>
     <sheet name="SpringBoot Module 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="932">
   <si>
     <t>1   JAVA là gì ?</t>
   </si>
@@ -3229,11 +3231,32 @@
       <t xml:space="preserve"> một các tự động và mạnh mẽ</t>
     </r>
   </si>
+  <si>
+    <t>Trình bày cách Spring MVC xử lý request</t>
+  </si>
+  <si>
+    <t>Thuộc tính produces trong các Request Mapping là gì ?</t>
+  </si>
+  <si>
+    <t>So sánh RequestParam và PathVariable ?</t>
+  </si>
+  <si>
+    <t>Mục đích xử lý ngoại lệ trong Spring Web MVC ?</t>
+  </si>
+  <si>
+    <t>Các cách xử lý ngoại lệ trong Spring Web MVC ?</t>
+  </si>
+  <si>
+    <t>Session là gì ? Cho ví dụ về session ?</t>
+  </si>
+  <si>
+    <t>Các cơ chế xác thực ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3288,7 +3311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3298,6 +3321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,7 +3458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -3481,23 +3510,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3535,11 +3561,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3550,8 +3582,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3647,6 +3683,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3682,6 +3735,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3857,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3869,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P330"/>
   <sheetViews>
     <sheetView topLeftCell="A131" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4033,33 +4103,33 @@
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -4179,54 +4249,54 @@
     </row>
     <row r="55" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="27" t="s">
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="27" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="27" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -4313,88 +4383,88 @@
       <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41" t="s">
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="27" t="s">
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="27" t="s">
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="27" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="27" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
@@ -4469,37 +4539,37 @@
     </row>
     <row r="91" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="27" t="s">
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="27" t="s">
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -4690,84 +4760,84 @@
     </row>
     <row r="132" spans="1:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="27" t="s">
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
     </row>
     <row r="133" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
     </row>
     <row r="134" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="27" t="s">
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="27" t="s">
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="28"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
@@ -4847,91 +4917,91 @@
     </row>
     <row r="151" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="B151" s="29" t="s">
+      <c r="B151" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="27" t="s">
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="H151" s="28"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="28"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
       <c r="N151" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="27" t="s">
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
     </row>
     <row r="153" spans="1:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="29" t="s">
+      <c r="B153" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="27" t="s">
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
     </row>
     <row r="154" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="27" t="s">
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
     </row>
     <row r="155" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-      <c r="B155" s="29" t="s">
+      <c r="B155" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="27" t="s">
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
     </row>
     <row r="156" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
@@ -4973,71 +5043,71 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="27" t="s">
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="27" t="s">
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
     </row>
     <row r="162" spans="1:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="27" t="s">
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
     </row>
     <row r="163" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="29" t="s">
+      <c r="B163" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="27" t="s">
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
@@ -5067,82 +5137,82 @@
       <c r="K167" s="26"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="27" t="s">
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="27" t="s">
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="27" t="s">
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="27" t="s">
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
@@ -5165,13 +5235,13 @@
       <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C176" s="39"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="40"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="39"/>
       <c r="G176" s="26" t="s">
         <v>229</v>
       </c>
@@ -5188,69 +5258,69 @@
       <c r="P176" s="26"/>
     </row>
     <row r="177" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="29" t="s">
+      <c r="B177" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="27" t="s">
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
-      <c r="L177" s="32" t="s">
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="M177" s="33"/>
-      <c r="N177" s="33"/>
-      <c r="O177" s="33"/>
-      <c r="P177" s="34"/>
+      <c r="M177" s="32"/>
+      <c r="N177" s="32"/>
+      <c r="O177" s="32"/>
+      <c r="P177" s="33"/>
     </row>
     <row r="178" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="27" t="s">
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="35"/>
-      <c r="M178" s="36"/>
-      <c r="N178" s="36"/>
-      <c r="O178" s="36"/>
-      <c r="P178" s="37"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="34"/>
+      <c r="M178" s="35"/>
+      <c r="N178" s="35"/>
+      <c r="O178" s="35"/>
+      <c r="P178" s="36"/>
     </row>
     <row r="179" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="29" t="s">
+      <c r="B179" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="27" t="s">
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="28"/>
-      <c r="O179" s="28"/>
-      <c r="P179" s="28"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="24"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="24"/>
     </row>
     <row r="180" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
@@ -5514,85 +5584,85 @@
       <c r="K229" s="26"/>
     </row>
     <row r="230" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="27" t="s">
+      <c r="B230" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
-      <c r="F230" s="28"/>
-      <c r="G230" s="27" t="s">
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="28"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="24"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="24"/>
     </row>
     <row r="231" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="27" t="s">
+      <c r="B231" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="28"/>
-      <c r="F231" s="28"/>
-      <c r="G231" s="27" t="s">
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="H231" s="28"/>
-      <c r="I231" s="28"/>
-      <c r="J231" s="28"/>
-      <c r="K231" s="28"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="24"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C232" s="28"/>
-      <c r="D232" s="28"/>
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="27" t="s">
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="H232" s="28"/>
-      <c r="I232" s="28"/>
-      <c r="J232" s="28"/>
-      <c r="K232" s="28"/>
+      <c r="H232" s="24"/>
+      <c r="I232" s="24"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="24"/>
     </row>
     <row r="233" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="27" t="s">
+      <c r="B233" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C233" s="28"/>
-      <c r="D233" s="28"/>
-      <c r="E233" s="28"/>
-      <c r="F233" s="28"/>
-      <c r="G233" s="27" t="s">
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H233" s="28"/>
-      <c r="I233" s="28"/>
-      <c r="J233" s="28"/>
-      <c r="K233" s="28"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="24"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="24"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
-      <c r="B234" s="27" t="s">
+      <c r="B234" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="27" t="s">
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H234" s="28"/>
-      <c r="I234" s="28"/>
-      <c r="J234" s="28"/>
-      <c r="K234" s="28"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="24"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="24"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6048,94 +6118,110 @@
       <c r="M327" s="26"/>
     </row>
     <row r="328" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="23" t="s">
+      <c r="B328" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="C328" s="24"/>
-      <c r="D328" s="24"/>
-      <c r="E328" s="24"/>
-      <c r="F328" s="24"/>
-      <c r="G328" s="25"/>
-      <c r="H328" s="23" t="s">
+      <c r="C328" s="41"/>
+      <c r="D328" s="41"/>
+      <c r="E328" s="41"/>
+      <c r="F328" s="41"/>
+      <c r="G328" s="42"/>
+      <c r="H328" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="I328" s="24"/>
-      <c r="J328" s="24"/>
-      <c r="K328" s="24"/>
-      <c r="L328" s="24"/>
-      <c r="M328" s="25"/>
+      <c r="I328" s="41"/>
+      <c r="J328" s="41"/>
+      <c r="K328" s="41"/>
+      <c r="L328" s="41"/>
+      <c r="M328" s="42"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="23" t="s">
+      <c r="B329" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="C329" s="24"/>
-      <c r="D329" s="24"/>
-      <c r="E329" s="24"/>
-      <c r="F329" s="24"/>
-      <c r="G329" s="25"/>
-      <c r="H329" s="23" t="s">
+      <c r="C329" s="41"/>
+      <c r="D329" s="41"/>
+      <c r="E329" s="41"/>
+      <c r="F329" s="41"/>
+      <c r="G329" s="42"/>
+      <c r="H329" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="I329" s="24"/>
-      <c r="J329" s="24"/>
-      <c r="K329" s="24"/>
-      <c r="L329" s="24"/>
-      <c r="M329" s="25"/>
+      <c r="I329" s="41"/>
+      <c r="J329" s="41"/>
+      <c r="K329" s="41"/>
+      <c r="L329" s="41"/>
+      <c r="M329" s="42"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B330" s="23" t="s">
+      <c r="B330" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="C330" s="24"/>
-      <c r="D330" s="24"/>
-      <c r="E330" s="24"/>
-      <c r="F330" s="24"/>
-      <c r="G330" s="25"/>
-      <c r="H330" s="23" t="s">
+      <c r="C330" s="41"/>
+      <c r="D330" s="41"/>
+      <c r="E330" s="41"/>
+      <c r="F330" s="41"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="I330" s="24"/>
-      <c r="J330" s="24"/>
-      <c r="K330" s="24"/>
-      <c r="L330" s="24"/>
-      <c r="M330" s="25"/>
+      <c r="I330" s="41"/>
+      <c r="J330" s="41"/>
+      <c r="K330" s="41"/>
+      <c r="L330" s="41"/>
+      <c r="M330" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B330:G330"/>
+    <mergeCell ref="H330:M330"/>
+    <mergeCell ref="B327:G327"/>
+    <mergeCell ref="H327:M327"/>
+    <mergeCell ref="B328:G328"/>
+    <mergeCell ref="H328:M328"/>
+    <mergeCell ref="B329:G329"/>
+    <mergeCell ref="H329:M329"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="G233:K233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:K229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G231:K231"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="L179:P179"/>
+    <mergeCell ref="L177:P178"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="L176:P176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="G162:K162"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="G160:K160"/>
     <mergeCell ref="B150:F150"/>
@@ -6159,55 +6245,39 @@
     <mergeCell ref="G154:K154"/>
     <mergeCell ref="G155:K155"/>
     <mergeCell ref="G159:K159"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:K229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="G230:K230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="G231:K231"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="L179:P179"/>
-    <mergeCell ref="L177:P178"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="L176:P176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="B330:G330"/>
-    <mergeCell ref="H330:M330"/>
-    <mergeCell ref="B327:G327"/>
-    <mergeCell ref="H327:M327"/>
-    <mergeCell ref="B328:G328"/>
-    <mergeCell ref="H328:M328"/>
-    <mergeCell ref="B329:G329"/>
-    <mergeCell ref="H329:M329"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:K233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:K54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6215,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P338"/>
   <sheetViews>
     <sheetView topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
@@ -6548,27 +6618,27 @@
       <c r="P44" s="26"/>
     </row>
     <row r="45" spans="1:16" ht="199.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28" t="s">
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -6690,52 +6760,52 @@
       <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28" t="s">
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28" t="s">
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
@@ -6807,20 +6877,20 @@
       <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28" t="s">
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -6847,20 +6917,20 @@
       <c r="K86" s="26"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28" t="s">
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -6887,20 +6957,20 @@
       <c r="K90" s="26"/>
     </row>
     <row r="91" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28" t="s">
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
     </row>
     <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -6927,34 +6997,34 @@
       <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="46"/>
     </row>
     <row r="96" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28" t="s">
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -6981,20 +7051,20 @@
       <c r="K99" s="26"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28" t="s">
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -7274,96 +7344,96 @@
       <c r="P158" s="26"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="28" t="s">
+      <c r="B159" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28" t="s">
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="28" t="s">
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="M159" s="28"/>
-      <c r="N159" s="28"/>
-      <c r="O159" s="28"/>
-      <c r="P159" s="28"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="24"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
     </row>
     <row r="160" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="23" t="s">
+      <c r="C160" s="41"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="41"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="23" t="s">
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="M160" s="24"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="24"/>
-      <c r="P160" s="25"/>
+      <c r="M160" s="41"/>
+      <c r="N160" s="41"/>
+      <c r="O160" s="41"/>
+      <c r="P160" s="42"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B161" s="28" t="s">
+      <c r="B161" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28" t="s">
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28" t="s">
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M161" s="28"/>
-      <c r="N161" s="28"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="28"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28" t="s">
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28" t="s">
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="28"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="24"/>
+      <c r="O162" s="24"/>
+      <c r="P162" s="24"/>
     </row>
     <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
@@ -7438,64 +7508,64 @@
       <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="28" t="s">
+      <c r="B176" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28" t="s">
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28" t="s">
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="28" t="s">
+      <c r="B178" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="43" t="s">
+      <c r="B179" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="C179" s="44"/>
-      <c r="D179" s="44"/>
-      <c r="E179" s="44"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="44"/>
-      <c r="I179" s="44"/>
-      <c r="J179" s="44"/>
-      <c r="K179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="45"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="46"/>
     </row>
     <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
@@ -7560,114 +7630,114 @@
       <c r="K190" s="26"/>
     </row>
     <row r="191" spans="1:11" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="28" t="s">
+      <c r="B191" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28" t="s">
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="28" t="s">
+      <c r="B192" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28" t="s">
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="28" t="s">
+      <c r="B193" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28" t="s">
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
+      <c r="H193" s="24"/>
+      <c r="I193" s="24"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="28" t="s">
+      <c r="B194" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28" t="s">
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="28"/>
+      <c r="H194" s="24"/>
+      <c r="I194" s="24"/>
+      <c r="J194" s="24"/>
+      <c r="K194" s="24"/>
     </row>
     <row r="195" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28" t="s">
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
+      <c r="H195" s="24"/>
+      <c r="I195" s="24"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="24"/>
     </row>
     <row r="196" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="28" t="s">
+      <c r="B196" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28" t="s">
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="24"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="24"/>
     </row>
     <row r="197" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="28" t="s">
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="H197" s="28"/>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="28"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
+      <c r="K197" s="24"/>
     </row>
     <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
@@ -7824,20 +7894,20 @@
       <c r="K229" s="26"/>
     </row>
     <row r="230" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="28" t="s">
+      <c r="B230" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
-      <c r="F230" s="28"/>
-      <c r="G230" s="28" t="s">
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="28"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="24"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="24"/>
     </row>
     <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
@@ -7864,84 +7934,84 @@
       <c r="K234" s="26"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="28" t="s">
+      <c r="B235" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="C235" s="28"/>
-      <c r="D235" s="28"/>
-      <c r="E235" s="28"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28" t="s">
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="H235" s="28"/>
-      <c r="I235" s="28"/>
-      <c r="J235" s="28"/>
-      <c r="K235" s="28"/>
+      <c r="H235" s="24"/>
+      <c r="I235" s="24"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="24"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="28" t="s">
+      <c r="B236" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="C236" s="28"/>
-      <c r="D236" s="28"/>
-      <c r="E236" s="28"/>
-      <c r="F236" s="28"/>
-      <c r="G236" s="28" t="s">
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="H236" s="28"/>
-      <c r="I236" s="28"/>
-      <c r="J236" s="28"/>
-      <c r="K236" s="28"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="24"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C237" s="28"/>
-      <c r="D237" s="28"/>
-      <c r="E237" s="28"/>
-      <c r="F237" s="28"/>
-      <c r="G237" s="28" t="s">
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="H237" s="28"/>
-      <c r="I237" s="28"/>
-      <c r="J237" s="28"/>
-      <c r="K237" s="28"/>
+      <c r="H237" s="24"/>
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="24"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="28" t="s">
+      <c r="B238" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="C238" s="28"/>
-      <c r="D238" s="28"/>
-      <c r="E238" s="28"/>
-      <c r="F238" s="28"/>
-      <c r="G238" s="28" t="s">
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="H238" s="28"/>
-      <c r="I238" s="28"/>
-      <c r="J238" s="28"/>
-      <c r="K238" s="28"/>
+      <c r="H238" s="24"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="C239" s="28"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="28"/>
-      <c r="F239" s="28"/>
-      <c r="G239" s="28" t="s">
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="H239" s="28"/>
-      <c r="I239" s="28"/>
-      <c r="J239" s="28"/>
-      <c r="K239" s="28"/>
+      <c r="H239" s="24"/>
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="24"/>
     </row>
     <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
@@ -7968,20 +8038,20 @@
       <c r="K243" s="26"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="28" t="s">
+      <c r="B244" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28" t="s">
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="H244" s="28"/>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28"/>
-      <c r="K244" s="28"/>
+      <c r="H244" s="24"/>
+      <c r="I244" s="24"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="24"/>
     </row>
     <row r="246" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
@@ -8008,36 +8078,36 @@
       <c r="K248" s="26"/>
     </row>
     <row r="249" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="28" t="s">
+      <c r="B249" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="28"/>
-      <c r="F249" s="28"/>
-      <c r="G249" s="28" t="s">
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="H249" s="28"/>
-      <c r="I249" s="28"/>
-      <c r="J249" s="28"/>
-      <c r="K249" s="28"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="24"/>
     </row>
     <row r="250" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="28" t="s">
+      <c r="B250" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="28"/>
-      <c r="F250" s="28"/>
-      <c r="G250" s="28" t="s">
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="H250" s="28"/>
-      <c r="I250" s="28"/>
-      <c r="J250" s="28"/>
-      <c r="K250" s="28"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="24"/>
     </row>
     <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
@@ -8079,20 +8149,20 @@
       <c r="K257" s="26"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="28" t="s">
+      <c r="B258" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
-      <c r="E258" s="28"/>
-      <c r="F258" s="28"/>
-      <c r="G258" s="28" t="s">
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="H258" s="28"/>
-      <c r="I258" s="28"/>
-      <c r="J258" s="28"/>
-      <c r="K258" s="28"/>
+      <c r="H258" s="24"/>
+      <c r="I258" s="24"/>
+      <c r="J258" s="24"/>
+      <c r="K258" s="24"/>
     </row>
     <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
@@ -8215,52 +8285,52 @@
       <c r="K282" s="26"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="28" t="s">
+      <c r="B283" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="C283" s="28"/>
-      <c r="D283" s="28"/>
-      <c r="E283" s="28"/>
-      <c r="F283" s="28"/>
-      <c r="G283" s="28" t="s">
+      <c r="C283" s="24"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="24"/>
+      <c r="F283" s="24"/>
+      <c r="G283" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="H283" s="28"/>
-      <c r="I283" s="28"/>
-      <c r="J283" s="28"/>
-      <c r="K283" s="28"/>
+      <c r="H283" s="24"/>
+      <c r="I283" s="24"/>
+      <c r="J283" s="24"/>
+      <c r="K283" s="24"/>
     </row>
     <row r="284" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="28" t="s">
+      <c r="B284" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
-      <c r="E284" s="28"/>
-      <c r="F284" s="28"/>
-      <c r="G284" s="28" t="s">
+      <c r="C284" s="24"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="24"/>
+      <c r="F284" s="24"/>
+      <c r="G284" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="H284" s="28"/>
-      <c r="I284" s="28"/>
-      <c r="J284" s="28"/>
-      <c r="K284" s="28"/>
+      <c r="H284" s="24"/>
+      <c r="I284" s="24"/>
+      <c r="J284" s="24"/>
+      <c r="K284" s="24"/>
     </row>
     <row r="285" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C285" s="28"/>
-      <c r="D285" s="28"/>
-      <c r="E285" s="28"/>
-      <c r="F285" s="28"/>
-      <c r="G285" s="28" t="s">
+      <c r="C285" s="24"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="24"/>
+      <c r="F285" s="24"/>
+      <c r="G285" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="H285" s="28"/>
-      <c r="I285" s="28"/>
-      <c r="J285" s="28"/>
-      <c r="K285" s="28"/>
+      <c r="H285" s="24"/>
+      <c r="I285" s="24"/>
+      <c r="J285" s="24"/>
+      <c r="K285" s="24"/>
     </row>
     <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
@@ -8296,52 +8366,52 @@
       <c r="K293" s="26"/>
     </row>
     <row r="294" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="28" t="s">
+      <c r="B294" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="C294" s="28"/>
-      <c r="D294" s="28"/>
-      <c r="E294" s="28"/>
-      <c r="F294" s="28"/>
-      <c r="G294" s="28" t="s">
+      <c r="C294" s="24"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="24"/>
+      <c r="F294" s="24"/>
+      <c r="G294" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="H294" s="28"/>
-      <c r="I294" s="28"/>
-      <c r="J294" s="28"/>
-      <c r="K294" s="28"/>
+      <c r="H294" s="24"/>
+      <c r="I294" s="24"/>
+      <c r="J294" s="24"/>
+      <c r="K294" s="24"/>
     </row>
     <row r="295" spans="1:11" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="28" t="s">
+      <c r="B295" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="C295" s="28"/>
-      <c r="D295" s="28"/>
-      <c r="E295" s="28"/>
-      <c r="F295" s="28"/>
-      <c r="G295" s="28" t="s">
+      <c r="C295" s="24"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="24"/>
+      <c r="F295" s="24"/>
+      <c r="G295" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="H295" s="28"/>
-      <c r="I295" s="28"/>
-      <c r="J295" s="28"/>
-      <c r="K295" s="28"/>
+      <c r="H295" s="24"/>
+      <c r="I295" s="24"/>
+      <c r="J295" s="24"/>
+      <c r="K295" s="24"/>
     </row>
     <row r="296" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="28" t="s">
+      <c r="B296" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="C296" s="28"/>
-      <c r="D296" s="28"/>
-      <c r="E296" s="28"/>
-      <c r="F296" s="28"/>
-      <c r="G296" s="28" t="s">
+      <c r="C296" s="24"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="H296" s="28"/>
-      <c r="I296" s="28"/>
-      <c r="J296" s="28"/>
-      <c r="K296" s="28"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
+      <c r="J296" s="24"/>
+      <c r="K296" s="24"/>
     </row>
     <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
@@ -8424,50 +8494,50 @@
       <c r="P314" s="26"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B315" s="46">
+      <c r="B315" s="43">
         <v>2000</v>
       </c>
-      <c r="C315" s="46"/>
-      <c r="D315" s="46"/>
-      <c r="E315" s="46"/>
-      <c r="F315" s="46"/>
-      <c r="G315" s="46">
+      <c r="C315" s="43"/>
+      <c r="D315" s="43"/>
+      <c r="E315" s="43"/>
+      <c r="F315" s="43"/>
+      <c r="G315" s="43">
         <v>2004</v>
       </c>
-      <c r="H315" s="46"/>
-      <c r="I315" s="46"/>
-      <c r="J315" s="46"/>
-      <c r="K315" s="46"/>
-      <c r="L315" s="46">
+      <c r="H315" s="43"/>
+      <c r="I315" s="43"/>
+      <c r="J315" s="43"/>
+      <c r="K315" s="43"/>
+      <c r="L315" s="43">
         <v>2012</v>
       </c>
-      <c r="M315" s="46"/>
-      <c r="N315" s="46"/>
-      <c r="O315" s="46"/>
-      <c r="P315" s="46"/>
+      <c r="M315" s="43"/>
+      <c r="N315" s="43"/>
+      <c r="O315" s="43"/>
+      <c r="P315" s="43"/>
     </row>
     <row r="316" spans="1:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="28" t="s">
+      <c r="B316" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="C316" s="28"/>
-      <c r="D316" s="28"/>
-      <c r="E316" s="28"/>
-      <c r="F316" s="28"/>
-      <c r="G316" s="28" t="s">
+      <c r="C316" s="24"/>
+      <c r="D316" s="24"/>
+      <c r="E316" s="24"/>
+      <c r="F316" s="24"/>
+      <c r="G316" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="H316" s="28"/>
-      <c r="I316" s="28"/>
-      <c r="J316" s="28"/>
-      <c r="K316" s="28"/>
-      <c r="L316" s="28" t="s">
+      <c r="H316" s="24"/>
+      <c r="I316" s="24"/>
+      <c r="J316" s="24"/>
+      <c r="K316" s="24"/>
+      <c r="L316" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="M316" s="28"/>
-      <c r="N316" s="28"/>
-      <c r="O316" s="28"/>
-      <c r="P316" s="28"/>
+      <c r="M316" s="24"/>
+      <c r="N316" s="24"/>
+      <c r="O316" s="24"/>
+      <c r="P316" s="24"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B318" s="4" t="s">
@@ -8645,6 +8715,112 @@
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="G194:K194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="G195:K195"/>
+    <mergeCell ref="L158:P158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="L159:P159"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="L162:P162"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="L160:P160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="L161:P161"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:K229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="B179:K179"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="G238:K238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="G239:K239"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="G243:K243"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="G237:K237"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="G257:K257"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="G250:K250"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="G244:K244"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="G249:K249"/>
+    <mergeCell ref="G283:K283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="G284:K284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="G285:K285"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="G258:K258"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="G282:K282"/>
     <mergeCell ref="L314:P314"/>
     <mergeCell ref="B315:F315"/>
     <mergeCell ref="G315:K315"/>
@@ -8669,135 +8845,29 @@
     <mergeCell ref="B314:F314"/>
     <mergeCell ref="G314:K314"/>
     <mergeCell ref="B283:F283"/>
-    <mergeCell ref="G283:K283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="G284:K284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="G285:K285"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="G258:K258"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="G282:K282"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="G257:K257"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="G250:K250"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="G244:K244"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="G248:K248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="G249:K249"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="G238:K238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="G239:K239"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="G243:K243"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="G236:K236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="G237:K237"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:K229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="G230:K230"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="B179:K179"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="L158:P158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="L159:P159"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="L162:P162"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="L160:P160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="L161:P161"/>
-    <mergeCell ref="G191:K191"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="G194:K194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="G195:K195"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C318" r:id="rId1"/>
-    <hyperlink ref="C319" r:id="rId2"/>
-    <hyperlink ref="C320" r:id="rId3"/>
-    <hyperlink ref="C322" r:id="rId4"/>
-    <hyperlink ref="C321" r:id="rId5"/>
-    <hyperlink ref="C323" r:id="rId6"/>
-    <hyperlink ref="C324" r:id="rId7"/>
-    <hyperlink ref="C325" r:id="rId8"/>
-    <hyperlink ref="C326" r:id="rId9"/>
-    <hyperlink ref="C327" r:id="rId10"/>
-    <hyperlink ref="C328" r:id="rId11"/>
-    <hyperlink ref="C329" r:id="rId12"/>
-    <hyperlink ref="C330" r:id="rId13"/>
-    <hyperlink ref="C331" r:id="rId14"/>
-    <hyperlink ref="C332" r:id="rId15"/>
-    <hyperlink ref="C333" r:id="rId16"/>
-    <hyperlink ref="C334" r:id="rId17"/>
-    <hyperlink ref="C335" r:id="rId18"/>
-    <hyperlink ref="C336" r:id="rId19"/>
-    <hyperlink ref="C337" r:id="rId20"/>
-    <hyperlink ref="C338" r:id="rId21"/>
+    <hyperlink ref="C318" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C319" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C320" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C322" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C321" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C323" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C324" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C325" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C326" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C327" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C328" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C329" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C330" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C331" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C332" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C333" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C334" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C335" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C336" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C337" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C338" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
@@ -8805,10 +8875,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B286" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B287" sqref="B287:G287"/>
     </sheetView>
   </sheetViews>
@@ -9778,68 +9848,68 @@
       <c r="K204" s="26"/>
     </row>
     <row r="205" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="28" t="s">
+      <c r="B205" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28" t="s">
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="24"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="28" t="s">
+      <c r="B206" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28" t="s">
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="H206" s="28"/>
-      <c r="I206" s="28"/>
-      <c r="J206" s="28"/>
-      <c r="K206" s="28"/>
+      <c r="H206" s="24"/>
+      <c r="I206" s="24"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
     </row>
     <row r="207" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="28" t="s">
+      <c r="B207" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28" t="s">
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="H207" s="28"/>
-      <c r="I207" s="28"/>
-      <c r="J207" s="28"/>
-      <c r="K207" s="28"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
     </row>
     <row r="208" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="28" t="s">
+      <c r="B208" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28" t="s">
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="H208" s="28"/>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
-      <c r="K208" s="28"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
     </row>
     <row r="210" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17">
@@ -9917,68 +9987,68 @@
       <c r="K222" s="26"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="28" t="s">
+      <c r="B223" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
-      <c r="F223" s="28"/>
-      <c r="G223" s="28" t="s">
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="H223" s="28"/>
-      <c r="I223" s="28"/>
-      <c r="J223" s="28"/>
-      <c r="K223" s="28"/>
+      <c r="H223" s="24"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24"/>
     </row>
     <row r="224" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="28" t="s">
+      <c r="B224" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
-      <c r="E224" s="28"/>
-      <c r="F224" s="28"/>
-      <c r="G224" s="28" t="s">
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
+      <c r="F224" s="24"/>
+      <c r="G224" s="24" t="s">
         <v>843</v>
       </c>
-      <c r="H224" s="28"/>
-      <c r="I224" s="28"/>
-      <c r="J224" s="28"/>
-      <c r="K224" s="28"/>
+      <c r="H224" s="24"/>
+      <c r="I224" s="24"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="24"/>
     </row>
     <row r="225" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="28" t="s">
+      <c r="B225" s="24" t="s">
         <v>848</v>
       </c>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28" t="s">
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28"/>
-      <c r="J225" s="28"/>
-      <c r="K225" s="28"/>
+      <c r="H225" s="24"/>
+      <c r="I225" s="24"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="24"/>
     </row>
     <row r="226" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="28" t="s">
+      <c r="B226" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="C226" s="28"/>
-      <c r="D226" s="28"/>
-      <c r="E226" s="28"/>
-      <c r="F226" s="28"/>
-      <c r="G226" s="28" t="s">
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="G226" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="H226" s="28"/>
-      <c r="I226" s="28"/>
-      <c r="J226" s="28"/>
-      <c r="K226" s="28"/>
+      <c r="H226" s="24"/>
+      <c r="I226" s="24"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="24"/>
     </row>
     <row r="228" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
@@ -10266,94 +10336,94 @@
       <c r="M286" s="26"/>
     </row>
     <row r="287" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="28" t="s">
+      <c r="B287" s="24" t="s">
         <v>878</v>
       </c>
-      <c r="C287" s="28"/>
-      <c r="D287" s="28"/>
-      <c r="E287" s="28"/>
-      <c r="F287" s="28"/>
-      <c r="G287" s="28"/>
-      <c r="H287" s="28" t="s">
+      <c r="C287" s="24"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="24"/>
+      <c r="F287" s="24"/>
+      <c r="G287" s="24"/>
+      <c r="H287" s="24" t="s">
         <v>883</v>
       </c>
-      <c r="I287" s="28"/>
-      <c r="J287" s="28"/>
-      <c r="K287" s="28"/>
-      <c r="L287" s="28"/>
-      <c r="M287" s="28"/>
+      <c r="I287" s="24"/>
+      <c r="J287" s="24"/>
+      <c r="K287" s="24"/>
+      <c r="L287" s="24"/>
+      <c r="M287" s="24"/>
     </row>
     <row r="288" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="28" t="s">
+      <c r="B288" s="24" t="s">
         <v>879</v>
       </c>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
-      <c r="E288" s="28"/>
-      <c r="F288" s="28"/>
-      <c r="G288" s="28"/>
-      <c r="H288" s="28" t="s">
+      <c r="C288" s="24"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="24"/>
+      <c r="F288" s="24"/>
+      <c r="G288" s="24"/>
+      <c r="H288" s="24" t="s">
         <v>884</v>
       </c>
-      <c r="I288" s="28"/>
-      <c r="J288" s="28"/>
-      <c r="K288" s="28"/>
-      <c r="L288" s="28"/>
-      <c r="M288" s="28"/>
+      <c r="I288" s="24"/>
+      <c r="J288" s="24"/>
+      <c r="K288" s="24"/>
+      <c r="L288" s="24"/>
+      <c r="M288" s="24"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B289" s="28" t="s">
+      <c r="B289" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="C289" s="28"/>
-      <c r="D289" s="28"/>
-      <c r="E289" s="28"/>
-      <c r="F289" s="28"/>
-      <c r="G289" s="28"/>
-      <c r="H289" s="28" t="s">
+      <c r="C289" s="24"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="24"/>
+      <c r="F289" s="24"/>
+      <c r="G289" s="24"/>
+      <c r="H289" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="I289" s="28"/>
-      <c r="J289" s="28"/>
-      <c r="K289" s="28"/>
-      <c r="L289" s="28"/>
-      <c r="M289" s="28"/>
+      <c r="I289" s="24"/>
+      <c r="J289" s="24"/>
+      <c r="K289" s="24"/>
+      <c r="L289" s="24"/>
+      <c r="M289" s="24"/>
     </row>
     <row r="290" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="28" t="s">
+      <c r="B290" s="24" t="s">
         <v>881</v>
       </c>
-      <c r="C290" s="28"/>
-      <c r="D290" s="28"/>
-      <c r="E290" s="28"/>
-      <c r="F290" s="28"/>
-      <c r="G290" s="28"/>
-      <c r="H290" s="28" t="s">
+      <c r="C290" s="24"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="24"/>
+      <c r="F290" s="24"/>
+      <c r="G290" s="24"/>
+      <c r="H290" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="I290" s="28"/>
-      <c r="J290" s="28"/>
-      <c r="K290" s="28"/>
-      <c r="L290" s="28"/>
-      <c r="M290" s="28"/>
+      <c r="I290" s="24"/>
+      <c r="J290" s="24"/>
+      <c r="K290" s="24"/>
+      <c r="L290" s="24"/>
+      <c r="M290" s="24"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="24" t="s">
         <v>882</v>
       </c>
-      <c r="C291" s="28"/>
-      <c r="D291" s="28"/>
-      <c r="E291" s="28"/>
-      <c r="F291" s="28"/>
-      <c r="G291" s="28"/>
-      <c r="H291" s="28" t="s">
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
+      <c r="F291" s="24"/>
+      <c r="G291" s="24"/>
+      <c r="H291" s="24" t="s">
         <v>887</v>
       </c>
-      <c r="I291" s="28"/>
-      <c r="J291" s="28"/>
-      <c r="K291" s="28"/>
-      <c r="L291" s="28"/>
-      <c r="M291" s="28"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="24"/>
+      <c r="K291" s="24"/>
+      <c r="L291" s="24"/>
+      <c r="M291" s="24"/>
     </row>
     <row r="293" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17">
@@ -10417,6 +10487,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:K223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="B286:G286"/>
+    <mergeCell ref="H286:M286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="H287:M287"/>
     <mergeCell ref="B291:G291"/>
     <mergeCell ref="H291:M291"/>
     <mergeCell ref="B288:G288"/>
@@ -10425,32 +10519,554 @@
     <mergeCell ref="H289:M289"/>
     <mergeCell ref="B290:G290"/>
     <mergeCell ref="H290:M290"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="B286:G286"/>
-    <mergeCell ref="H286:M286"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="H287:M287"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:K223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="G206:K206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A913EE-0579-4239-BF52-E67908C95A5B}">
+  <dimension ref="C3:D68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="47">
+        <v>2</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="47">
+        <v>3</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="47">
+        <v>4</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="47">
+        <v>5</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="47">
+        <v>6</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="47">
+        <v>7</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="47">
+        <v>8</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="47">
+        <v>9</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="47">
+        <v>10</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="47">
+        <v>11</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="47">
+        <v>12</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="47">
+        <v>13</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="47">
+        <v>14</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="47">
+        <v>15</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="47">
+        <v>16</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="47">
+        <v>17</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="47">
+        <v>18</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="47">
+        <v>19</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="47">
+        <v>20</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="47">
+        <v>21</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="47">
+        <v>22</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="47">
+        <v>23</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="47">
+        <v>24</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="47">
+        <v>25</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="47">
+        <v>26</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="47">
+        <v>27</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="47">
+        <v>28</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="47">
+        <v>29</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="47">
+        <v>30</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="47">
+        <v>31</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="47">
+        <v>32</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="47">
+        <v>33</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="47">
+        <v>34</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="47">
+        <v>35</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="47">
+        <v>36</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="47">
+        <v>37</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="47">
+        <v>38</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="47">
+        <v>39</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="47">
+        <v>40</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="47">
+        <v>41</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="47">
+        <v>42</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="47">
+        <v>43</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="47">
+        <v>44</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="47">
+        <v>45</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="47">
+        <v>46</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="47">
+        <v>47</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="47">
+        <v>48</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="47">
+        <v>49</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="47">
+        <v>50</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="47">
+        <v>51</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="47">
+        <v>52</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="47">
+        <v>53</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="47">
+        <v>54</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="47">
+        <v>55</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="47">
+        <v>56</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="47">
+        <v>57</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="47">
+        <v>58</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="47">
+        <v>59</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="47">
+        <v>60</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="47">
+        <v>61</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="47">
+        <v>62</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="47">
+        <v>63</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="47">
+        <v>64</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="47">
+        <v>65</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="47">
+        <v>66</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/taiLieu/CodeGym.xlsx
+++ b/taiLieu/CodeGym.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Codegym\04-module 4\taiLieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Module4-tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB80B1B-1257-4B5D-80F9-DD0375A64D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Js Module 1" sheetId="3" r:id="rId1"/>
     <sheet name="Java Module 2" sheetId="1" r:id="rId2"/>
     <sheet name="Servlet Module 3" sheetId="2" r:id="rId3"/>
     <sheet name="SpringBoot Module 4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="925">
   <si>
     <t>1   JAVA là gì ?</t>
   </si>
@@ -3231,32 +3229,11 @@
       <t xml:space="preserve"> một các tự động và mạnh mẽ</t>
     </r>
   </si>
-  <si>
-    <t>Trình bày cách Spring MVC xử lý request</t>
-  </si>
-  <si>
-    <t>Thuộc tính produces trong các Request Mapping là gì ?</t>
-  </si>
-  <si>
-    <t>So sánh RequestParam và PathVariable ?</t>
-  </si>
-  <si>
-    <t>Mục đích xử lý ngoại lệ trong Spring Web MVC ?</t>
-  </si>
-  <si>
-    <t>Các cách xử lý ngoại lệ trong Spring Web MVC ?</t>
-  </si>
-  <si>
-    <t>Session là gì ? Cho ví dụ về session ?</t>
-  </si>
-  <si>
-    <t>Các cơ chế xác thực ?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3311,7 +3288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3321,12 +3298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3458,7 +3429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -3510,20 +3481,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3561,17 +3535,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3582,12 +3550,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3683,23 +3647,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3735,23 +3682,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3927,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3939,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P330"/>
   <sheetViews>
     <sheetView topLeftCell="A131" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4103,33 +4033,33 @@
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -4249,54 +4179,54 @@
     </row>
     <row r="55" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="23" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="23" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -4383,88 +4313,88 @@
       <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27" t="s">
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="23" t="s">
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="23" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="23" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
@@ -4539,37 +4469,37 @@
     </row>
     <row r="91" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="23" t="s">
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="23" t="s">
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -4760,84 +4690,84 @@
     </row>
     <row r="132" spans="1:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="23" t="s">
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
     </row>
     <row r="133" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
     </row>
     <row r="134" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="23" t="s">
+      <c r="B134" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="23" t="s">
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
-      <c r="K135" s="24"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="23" t="s">
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
@@ -4917,91 +4847,91 @@
     </row>
     <row r="151" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="23" t="s">
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
       <c r="N151" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="28" t="s">
+      <c r="B152" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="23" t="s">
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
     </row>
     <row r="153" spans="1:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="28" t="s">
+      <c r="B153" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="23" t="s">
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
     </row>
     <row r="154" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="28" t="s">
+      <c r="B154" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="23" t="s">
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H154" s="24"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
-      <c r="K154" s="24"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
     </row>
     <row r="155" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="23" t="s">
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
     </row>
     <row r="156" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
@@ -5043,71 +4973,71 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="28" t="s">
+      <c r="B160" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="23" t="s">
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="28"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="28" t="s">
+      <c r="B161" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="23" t="s">
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
     </row>
     <row r="162" spans="1:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="23" t="s">
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
     </row>
     <row r="163" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="28" t="s">
+      <c r="B163" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="23" t="s">
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
@@ -5137,82 +5067,82 @@
       <c r="K167" s="26"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B168" s="28" t="s">
+      <c r="B168" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="23" t="s">
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B169" s="28" t="s">
+      <c r="B169" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="23" t="s">
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B170" s="28" t="s">
+      <c r="B170" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="23" t="s">
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="H170" s="24"/>
-      <c r="I170" s="24"/>
-      <c r="J170" s="24"/>
-      <c r="K170" s="24"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="28"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B171" s="28" t="s">
+      <c r="B171" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="23" t="s">
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="28" t="s">
+      <c r="B172" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="24"/>
-      <c r="J172" s="24"/>
-      <c r="K172" s="24"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
@@ -5235,13 +5165,13 @@
       <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="39"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="40"/>
       <c r="G176" s="26" t="s">
         <v>229</v>
       </c>
@@ -5258,69 +5188,69 @@
       <c r="P176" s="26"/>
     </row>
     <row r="177" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
-      <c r="G177" s="23" t="s">
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H177" s="24"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="24"/>
-      <c r="K177" s="24"/>
-      <c r="L177" s="31" t="s">
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="M177" s="32"/>
-      <c r="N177" s="32"/>
-      <c r="O177" s="32"/>
-      <c r="P177" s="33"/>
+      <c r="M177" s="33"/>
+      <c r="N177" s="33"/>
+      <c r="O177" s="33"/>
+      <c r="P177" s="34"/>
     </row>
     <row r="178" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="28" t="s">
+      <c r="B178" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="23" t="s">
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="34"/>
-      <c r="M178" s="35"/>
-      <c r="N178" s="35"/>
-      <c r="O178" s="35"/>
-      <c r="P178" s="36"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="35"/>
+      <c r="M178" s="36"/>
+      <c r="N178" s="36"/>
+      <c r="O178" s="36"/>
+      <c r="P178" s="37"/>
     </row>
     <row r="179" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="28" t="s">
+      <c r="B179" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="23" t="s">
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="24"/>
-      <c r="M179" s="24"/>
-      <c r="N179" s="24"/>
-      <c r="O179" s="24"/>
-      <c r="P179" s="24"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="28"/>
     </row>
     <row r="180" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
@@ -5584,85 +5514,85 @@
       <c r="K229" s="26"/>
     </row>
     <row r="230" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="23" t="s">
+      <c r="B230" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="24"/>
-      <c r="G230" s="23" t="s">
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="H230" s="24"/>
-      <c r="I230" s="24"/>
-      <c r="J230" s="24"/>
-      <c r="K230" s="24"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
     </row>
     <row r="231" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="23" t="s">
+      <c r="B231" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C231" s="24"/>
-      <c r="D231" s="24"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="24"/>
-      <c r="G231" s="23" t="s">
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="H231" s="24"/>
-      <c r="I231" s="24"/>
-      <c r="J231" s="24"/>
-      <c r="K231" s="24"/>
+      <c r="H231" s="28"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="23" t="s">
+      <c r="B232" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C232" s="24"/>
-      <c r="D232" s="24"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="23" t="s">
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="H232" s="24"/>
-      <c r="I232" s="24"/>
-      <c r="J232" s="24"/>
-      <c r="K232" s="24"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="28"/>
     </row>
     <row r="233" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="23" t="s">
+      <c r="B233" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C233" s="24"/>
-      <c r="D233" s="24"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="24"/>
-      <c r="G233" s="23" t="s">
+      <c r="C233" s="28"/>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="H233" s="24"/>
-      <c r="I233" s="24"/>
-      <c r="J233" s="24"/>
-      <c r="K233" s="24"/>
+      <c r="H233" s="28"/>
+      <c r="I233" s="28"/>
+      <c r="J233" s="28"/>
+      <c r="K233" s="28"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
-      <c r="B234" s="23" t="s">
+      <c r="B234" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C234" s="24"/>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="23" t="s">
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H234" s="24"/>
-      <c r="I234" s="24"/>
-      <c r="J234" s="24"/>
-      <c r="K234" s="24"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6118,110 +6048,94 @@
       <c r="M327" s="26"/>
     </row>
     <row r="328" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="40" t="s">
+      <c r="B328" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C328" s="41"/>
-      <c r="D328" s="41"/>
-      <c r="E328" s="41"/>
-      <c r="F328" s="41"/>
-      <c r="G328" s="42"/>
-      <c r="H328" s="40" t="s">
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="24"/>
+      <c r="F328" s="24"/>
+      <c r="G328" s="25"/>
+      <c r="H328" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="I328" s="41"/>
-      <c r="J328" s="41"/>
-      <c r="K328" s="41"/>
-      <c r="L328" s="41"/>
-      <c r="M328" s="42"/>
+      <c r="I328" s="24"/>
+      <c r="J328" s="24"/>
+      <c r="K328" s="24"/>
+      <c r="L328" s="24"/>
+      <c r="M328" s="25"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="40" t="s">
+      <c r="B329" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C329" s="41"/>
-      <c r="D329" s="41"/>
-      <c r="E329" s="41"/>
-      <c r="F329" s="41"/>
-      <c r="G329" s="42"/>
-      <c r="H329" s="40" t="s">
+      <c r="C329" s="24"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="24"/>
+      <c r="F329" s="24"/>
+      <c r="G329" s="25"/>
+      <c r="H329" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="I329" s="41"/>
-      <c r="J329" s="41"/>
-      <c r="K329" s="41"/>
-      <c r="L329" s="41"/>
-      <c r="M329" s="42"/>
+      <c r="I329" s="24"/>
+      <c r="J329" s="24"/>
+      <c r="K329" s="24"/>
+      <c r="L329" s="24"/>
+      <c r="M329" s="25"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B330" s="40" t="s">
+      <c r="B330" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C330" s="41"/>
-      <c r="D330" s="41"/>
-      <c r="E330" s="41"/>
-      <c r="F330" s="41"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="40" t="s">
+      <c r="C330" s="24"/>
+      <c r="D330" s="24"/>
+      <c r="E330" s="24"/>
+      <c r="F330" s="24"/>
+      <c r="G330" s="25"/>
+      <c r="H330" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="I330" s="41"/>
-      <c r="J330" s="41"/>
-      <c r="K330" s="41"/>
-      <c r="L330" s="41"/>
-      <c r="M330" s="42"/>
+      <c r="I330" s="24"/>
+      <c r="J330" s="24"/>
+      <c r="K330" s="24"/>
+      <c r="L330" s="24"/>
+      <c r="M330" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B330:G330"/>
-    <mergeCell ref="H330:M330"/>
-    <mergeCell ref="B327:G327"/>
-    <mergeCell ref="H327:M327"/>
-    <mergeCell ref="B328:G328"/>
-    <mergeCell ref="H328:M328"/>
-    <mergeCell ref="B329:G329"/>
-    <mergeCell ref="H329:M329"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:K233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:K229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="G230:K230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="G231:K231"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="L179:P179"/>
-    <mergeCell ref="L177:P178"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="L176:P176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="G160:K160"/>
     <mergeCell ref="B150:F150"/>
@@ -6245,39 +6159,55 @@
     <mergeCell ref="G154:K154"/>
     <mergeCell ref="G155:K155"/>
     <mergeCell ref="G159:K159"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:K229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G231:K231"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="L179:P179"/>
+    <mergeCell ref="L177:P178"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="L176:P176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="B330:G330"/>
+    <mergeCell ref="H330:M330"/>
+    <mergeCell ref="B327:G327"/>
+    <mergeCell ref="H327:M327"/>
+    <mergeCell ref="B328:G328"/>
+    <mergeCell ref="H328:M328"/>
+    <mergeCell ref="B329:G329"/>
+    <mergeCell ref="H329:M329"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="G233:K233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:K234"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6285,7 +6215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P338"/>
   <sheetViews>
     <sheetView topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
@@ -6618,27 +6548,27 @@
       <c r="P44" s="26"/>
     </row>
     <row r="45" spans="1:16" ht="199.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24" t="s">
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -6760,52 +6690,52 @@
       <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
@@ -6877,20 +6807,20 @@
       <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -6917,20 +6847,20 @@
       <c r="K86" s="26"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24" t="s">
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -6957,20 +6887,20 @@
       <c r="K90" s="26"/>
     </row>
     <row r="91" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24" t="s">
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -6997,34 +6927,34 @@
       <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="46"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="45"/>
     </row>
     <row r="96" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24" t="s">
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -7051,20 +6981,20 @@
       <c r="K99" s="26"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24" t="s">
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -7344,96 +7274,96 @@
       <c r="P158" s="26"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24" t="s">
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24" t="s">
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="28"/>
+      <c r="P159" s="28"/>
     </row>
     <row r="160" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="42"/>
-      <c r="G160" s="40" t="s">
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="H160" s="41"/>
-      <c r="I160" s="41"/>
-      <c r="J160" s="41"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="40" t="s">
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="M160" s="41"/>
-      <c r="N160" s="41"/>
-      <c r="O160" s="41"/>
-      <c r="P160" s="42"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="25"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24" t="s">
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24" t="s">
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="M161" s="24"/>
-      <c r="N161" s="24"/>
-      <c r="O161" s="24"/>
-      <c r="P161" s="24"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+      <c r="P161" s="28"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24" t="s">
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="24" t="s">
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="M162" s="24"/>
-      <c r="N162" s="24"/>
-      <c r="O162" s="24"/>
-      <c r="P162" s="24"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
     </row>
     <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
@@ -7508,64 +7438,64 @@
       <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24" t="s">
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="24"/>
-      <c r="K176" s="24"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="28"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24" t="s">
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="H177" s="24"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="24"/>
-      <c r="K177" s="24"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="44" t="s">
+      <c r="B179" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="C179" s="45"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="45"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="46"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="44"/>
+      <c r="J179" s="44"/>
+      <c r="K179" s="45"/>
     </row>
     <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
@@ -7630,114 +7560,114 @@
       <c r="K190" s="26"/>
     </row>
     <row r="191" spans="1:11" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24" t="s">
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="H191" s="24"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="24"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24" t="s">
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="H192" s="24"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="24"/>
-      <c r="K192" s="24"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24" t="s">
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="H193" s="24"/>
-      <c r="I193" s="24"/>
-      <c r="J193" s="24"/>
-      <c r="K193" s="24"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24" t="s">
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="H194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="J194" s="24"/>
-      <c r="K194" s="24"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
     </row>
     <row r="195" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24" t="s">
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="H195" s="24"/>
-      <c r="I195" s="24"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="24"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
     </row>
     <row r="196" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24" t="s">
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="H196" s="24"/>
-      <c r="I196" s="24"/>
-      <c r="J196" s="24"/>
-      <c r="K196" s="24"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
     </row>
     <row r="197" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24" t="s">
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="H197" s="24"/>
-      <c r="I197" s="24"/>
-      <c r="J197" s="24"/>
-      <c r="K197" s="24"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
     </row>
     <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
@@ -7894,20 +7824,20 @@
       <c r="K229" s="26"/>
     </row>
     <row r="230" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="24" t="s">
+      <c r="B230" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="24"/>
-      <c r="G230" s="24" t="s">
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="H230" s="24"/>
-      <c r="I230" s="24"/>
-      <c r="J230" s="24"/>
-      <c r="K230" s="24"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
     </row>
     <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
@@ -7934,84 +7864,84 @@
       <c r="K234" s="26"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="C235" s="24"/>
-      <c r="D235" s="24"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24" t="s">
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="H235" s="24"/>
-      <c r="I235" s="24"/>
-      <c r="J235" s="24"/>
-      <c r="K235" s="24"/>
+      <c r="H235" s="28"/>
+      <c r="I235" s="28"/>
+      <c r="J235" s="28"/>
+      <c r="K235" s="28"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="24" t="s">
+      <c r="B236" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="C236" s="24"/>
-      <c r="D236" s="24"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="24"/>
-      <c r="G236" s="24" t="s">
+      <c r="C236" s="28"/>
+      <c r="D236" s="28"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="H236" s="24"/>
-      <c r="I236" s="24"/>
-      <c r="J236" s="24"/>
-      <c r="K236" s="24"/>
+      <c r="H236" s="28"/>
+      <c r="I236" s="28"/>
+      <c r="J236" s="28"/>
+      <c r="K236" s="28"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="24" t="s">
+      <c r="B237" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="C237" s="24"/>
-      <c r="D237" s="24"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="24"/>
-      <c r="G237" s="24" t="s">
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="H237" s="24"/>
-      <c r="I237" s="24"/>
-      <c r="J237" s="24"/>
-      <c r="K237" s="24"/>
+      <c r="H237" s="28"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="28"/>
+      <c r="K237" s="28"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="24" t="s">
+      <c r="B238" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="C238" s="24"/>
-      <c r="D238" s="24"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="24" t="s">
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="H238" s="24"/>
-      <c r="I238" s="24"/>
-      <c r="J238" s="24"/>
-      <c r="K238" s="24"/>
+      <c r="H238" s="28"/>
+      <c r="I238" s="28"/>
+      <c r="J238" s="28"/>
+      <c r="K238" s="28"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="24" t="s">
+      <c r="B239" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="C239" s="24"/>
-      <c r="D239" s="24"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="24"/>
-      <c r="G239" s="24" t="s">
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="H239" s="24"/>
-      <c r="I239" s="24"/>
-      <c r="J239" s="24"/>
-      <c r="K239" s="24"/>
+      <c r="H239" s="28"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
     </row>
     <row r="241" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
@@ -8038,20 +7968,20 @@
       <c r="K243" s="26"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="24" t="s">
+      <c r="B244" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="24"/>
-      <c r="G244" s="24" t="s">
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="H244" s="24"/>
-      <c r="I244" s="24"/>
-      <c r="J244" s="24"/>
-      <c r="K244" s="24"/>
+      <c r="H244" s="28"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="28"/>
     </row>
     <row r="246" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
@@ -8078,36 +8008,36 @@
       <c r="K248" s="26"/>
     </row>
     <row r="249" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="24" t="s">
+      <c r="B249" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="C249" s="24"/>
-      <c r="D249" s="24"/>
-      <c r="E249" s="24"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="24" t="s">
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="H249" s="24"/>
-      <c r="I249" s="24"/>
-      <c r="J249" s="24"/>
-      <c r="K249" s="24"/>
+      <c r="H249" s="28"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="28"/>
     </row>
     <row r="250" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="C250" s="24"/>
-      <c r="D250" s="24"/>
-      <c r="E250" s="24"/>
-      <c r="F250" s="24"/>
-      <c r="G250" s="24" t="s">
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="H250" s="24"/>
-      <c r="I250" s="24"/>
-      <c r="J250" s="24"/>
-      <c r="K250" s="24"/>
+      <c r="H250" s="28"/>
+      <c r="I250" s="28"/>
+      <c r="J250" s="28"/>
+      <c r="K250" s="28"/>
     </row>
     <row r="252" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
@@ -8149,20 +8079,20 @@
       <c r="K257" s="26"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="24" t="s">
+      <c r="B258" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="C258" s="24"/>
-      <c r="D258" s="24"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="24"/>
-      <c r="G258" s="24" t="s">
+      <c r="C258" s="28"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="H258" s="24"/>
-      <c r="I258" s="24"/>
-      <c r="J258" s="24"/>
-      <c r="K258" s="24"/>
+      <c r="H258" s="28"/>
+      <c r="I258" s="28"/>
+      <c r="J258" s="28"/>
+      <c r="K258" s="28"/>
     </row>
     <row r="260" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
@@ -8285,52 +8215,52 @@
       <c r="K282" s="26"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="24" t="s">
+      <c r="B283" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="C283" s="24"/>
-      <c r="D283" s="24"/>
-      <c r="E283" s="24"/>
-      <c r="F283" s="24"/>
-      <c r="G283" s="24" t="s">
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="H283" s="24"/>
-      <c r="I283" s="24"/>
-      <c r="J283" s="24"/>
-      <c r="K283" s="24"/>
+      <c r="H283" s="28"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
     </row>
     <row r="284" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="24" t="s">
+      <c r="B284" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="C284" s="24"/>
-      <c r="D284" s="24"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="24"/>
-      <c r="G284" s="24" t="s">
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="H284" s="24"/>
-      <c r="I284" s="24"/>
-      <c r="J284" s="24"/>
-      <c r="K284" s="24"/>
+      <c r="H284" s="28"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="28"/>
     </row>
     <row r="285" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="24" t="s">
+      <c r="B285" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="C285" s="24"/>
-      <c r="D285" s="24"/>
-      <c r="E285" s="24"/>
-      <c r="F285" s="24"/>
-      <c r="G285" s="24" t="s">
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="H285" s="24"/>
-      <c r="I285" s="24"/>
-      <c r="J285" s="24"/>
-      <c r="K285" s="24"/>
+      <c r="H285" s="28"/>
+      <c r="I285" s="28"/>
+      <c r="J285" s="28"/>
+      <c r="K285" s="28"/>
     </row>
     <row r="287" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
@@ -8366,52 +8296,52 @@
       <c r="K293" s="26"/>
     </row>
     <row r="294" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="24" t="s">
+      <c r="B294" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="C294" s="24"/>
-      <c r="D294" s="24"/>
-      <c r="E294" s="24"/>
-      <c r="F294" s="24"/>
-      <c r="G294" s="24" t="s">
+      <c r="C294" s="28"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="H294" s="24"/>
-      <c r="I294" s="24"/>
-      <c r="J294" s="24"/>
-      <c r="K294" s="24"/>
+      <c r="H294" s="28"/>
+      <c r="I294" s="28"/>
+      <c r="J294" s="28"/>
+      <c r="K294" s="28"/>
     </row>
     <row r="295" spans="1:11" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="24" t="s">
+      <c r="B295" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="C295" s="24"/>
-      <c r="D295" s="24"/>
-      <c r="E295" s="24"/>
-      <c r="F295" s="24"/>
-      <c r="G295" s="24" t="s">
+      <c r="C295" s="28"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="28"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="H295" s="24"/>
-      <c r="I295" s="24"/>
-      <c r="J295" s="24"/>
-      <c r="K295" s="24"/>
+      <c r="H295" s="28"/>
+      <c r="I295" s="28"/>
+      <c r="J295" s="28"/>
+      <c r="K295" s="28"/>
     </row>
     <row r="296" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="24" t="s">
+      <c r="B296" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="C296" s="24"/>
-      <c r="D296" s="24"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="24"/>
-      <c r="G296" s="24" t="s">
+      <c r="C296" s="28"/>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="H296" s="24"/>
-      <c r="I296" s="24"/>
-      <c r="J296" s="24"/>
-      <c r="K296" s="24"/>
+      <c r="H296" s="28"/>
+      <c r="I296" s="28"/>
+      <c r="J296" s="28"/>
+      <c r="K296" s="28"/>
     </row>
     <row r="298" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
@@ -8494,50 +8424,50 @@
       <c r="P314" s="26"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B315" s="43">
+      <c r="B315" s="46">
         <v>2000</v>
       </c>
-      <c r="C315" s="43"/>
-      <c r="D315" s="43"/>
-      <c r="E315" s="43"/>
-      <c r="F315" s="43"/>
-      <c r="G315" s="43">
+      <c r="C315" s="46"/>
+      <c r="D315" s="46"/>
+      <c r="E315" s="46"/>
+      <c r="F315" s="46"/>
+      <c r="G315" s="46">
         <v>2004</v>
       </c>
-      <c r="H315" s="43"/>
-      <c r="I315" s="43"/>
-      <c r="J315" s="43"/>
-      <c r="K315" s="43"/>
-      <c r="L315" s="43">
+      <c r="H315" s="46"/>
+      <c r="I315" s="46"/>
+      <c r="J315" s="46"/>
+      <c r="K315" s="46"/>
+      <c r="L315" s="46">
         <v>2012</v>
       </c>
-      <c r="M315" s="43"/>
-      <c r="N315" s="43"/>
-      <c r="O315" s="43"/>
-      <c r="P315" s="43"/>
+      <c r="M315" s="46"/>
+      <c r="N315" s="46"/>
+      <c r="O315" s="46"/>
+      <c r="P315" s="46"/>
     </row>
     <row r="316" spans="1:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="24" t="s">
+      <c r="B316" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="C316" s="24"/>
-      <c r="D316" s="24"/>
-      <c r="E316" s="24"/>
-      <c r="F316" s="24"/>
-      <c r="G316" s="24" t="s">
+      <c r="C316" s="28"/>
+      <c r="D316" s="28"/>
+      <c r="E316" s="28"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="H316" s="24"/>
-      <c r="I316" s="24"/>
-      <c r="J316" s="24"/>
-      <c r="K316" s="24"/>
-      <c r="L316" s="24" t="s">
+      <c r="H316" s="28"/>
+      <c r="I316" s="28"/>
+      <c r="J316" s="28"/>
+      <c r="K316" s="28"/>
+      <c r="L316" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="M316" s="24"/>
-      <c r="N316" s="24"/>
-      <c r="O316" s="24"/>
-      <c r="P316" s="24"/>
+      <c r="M316" s="28"/>
+      <c r="N316" s="28"/>
+      <c r="O316" s="28"/>
+      <c r="P316" s="28"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B318" s="4" t="s">
@@ -8715,57 +8645,61 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="G191:K191"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="G194:K194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="G195:K195"/>
-    <mergeCell ref="L158:P158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="L159:P159"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="L162:P162"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="L160:P160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="L161:P161"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="L314:P314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="G315:K315"/>
+    <mergeCell ref="L315:P315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="G316:K316"/>
+    <mergeCell ref="L316:P316"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="G293:K293"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="G294:K294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="G295:K295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="G296:K296"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="G314:K314"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="G283:K283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="G284:K284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="G285:K285"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="G258:K258"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="G282:K282"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="G257:K257"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="G250:K250"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="G244:K244"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="G249:K249"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="G238:K238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="G239:K239"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="G243:K243"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="G237:K237"/>
     <mergeCell ref="B229:F229"/>
     <mergeCell ref="G229:K229"/>
     <mergeCell ref="B230:F230"/>
@@ -8790,84 +8724,80 @@
     <mergeCell ref="B190:F190"/>
     <mergeCell ref="G190:K190"/>
     <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="G238:K238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="G239:K239"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="G243:K243"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="G236:K236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="G237:K237"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="G257:K257"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="G250:K250"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="G244:K244"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="G248:K248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="G249:K249"/>
-    <mergeCell ref="G283:K283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="G284:K284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="G285:K285"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="G258:K258"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="G282:K282"/>
-    <mergeCell ref="L314:P314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="G315:K315"/>
-    <mergeCell ref="L315:P315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="G316:K316"/>
-    <mergeCell ref="L316:P316"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="G293:K293"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="G294:K294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="G295:K295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="G296:K296"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="G314:K314"/>
-    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="L158:P158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="L159:P159"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="L162:P162"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="L160:P160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="L161:P161"/>
+    <mergeCell ref="G191:K191"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="G194:K194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="G195:K195"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C318" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C319" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C320" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C322" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C321" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C323" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C324" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C325" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C326" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C327" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C328" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C329" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C330" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C331" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C332" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C333" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C334" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C335" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C336" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C337" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C338" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C318" r:id="rId1"/>
+    <hyperlink ref="C319" r:id="rId2"/>
+    <hyperlink ref="C320" r:id="rId3"/>
+    <hyperlink ref="C322" r:id="rId4"/>
+    <hyperlink ref="C321" r:id="rId5"/>
+    <hyperlink ref="C323" r:id="rId6"/>
+    <hyperlink ref="C324" r:id="rId7"/>
+    <hyperlink ref="C325" r:id="rId8"/>
+    <hyperlink ref="C326" r:id="rId9"/>
+    <hyperlink ref="C327" r:id="rId10"/>
+    <hyperlink ref="C328" r:id="rId11"/>
+    <hyperlink ref="C329" r:id="rId12"/>
+    <hyperlink ref="C330" r:id="rId13"/>
+    <hyperlink ref="C331" r:id="rId14"/>
+    <hyperlink ref="C332" r:id="rId15"/>
+    <hyperlink ref="C333" r:id="rId16"/>
+    <hyperlink ref="C334" r:id="rId17"/>
+    <hyperlink ref="C335" r:id="rId18"/>
+    <hyperlink ref="C336" r:id="rId19"/>
+    <hyperlink ref="C337" r:id="rId20"/>
+    <hyperlink ref="C338" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
@@ -8875,10 +8805,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B286" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B287" sqref="B287:G287"/>
     </sheetView>
   </sheetViews>
@@ -9848,68 +9778,68 @@
       <c r="K204" s="26"/>
     </row>
     <row r="205" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="C205" s="24"/>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24" t="s">
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
-      <c r="J205" s="24"/>
-      <c r="K205" s="24"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="24" t="s">
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="H206" s="24"/>
-      <c r="I206" s="24"/>
-      <c r="J206" s="24"/>
-      <c r="K206" s="24"/>
+      <c r="H206" s="28"/>
+      <c r="I206" s="28"/>
+      <c r="J206" s="28"/>
+      <c r="K206" s="28"/>
     </row>
     <row r="207" spans="1:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="24" t="s">
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="H207" s="24"/>
-      <c r="I207" s="24"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="24"/>
+      <c r="H207" s="28"/>
+      <c r="I207" s="28"/>
+      <c r="J207" s="28"/>
+      <c r="K207" s="28"/>
     </row>
     <row r="208" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="24" t="s">
+      <c r="B208" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="24" t="s">
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="H208" s="24"/>
-      <c r="I208" s="24"/>
-      <c r="J208" s="24"/>
-      <c r="K208" s="24"/>
+      <c r="H208" s="28"/>
+      <c r="I208" s="28"/>
+      <c r="J208" s="28"/>
+      <c r="K208" s="28"/>
     </row>
     <row r="210" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17">
@@ -9987,68 +9917,68 @@
       <c r="K222" s="26"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="24" t="s">
+      <c r="B223" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="C223" s="24"/>
-      <c r="D223" s="24"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="24"/>
-      <c r="G223" s="24" t="s">
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="H223" s="24"/>
-      <c r="I223" s="24"/>
-      <c r="J223" s="24"/>
-      <c r="K223" s="24"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
+      <c r="K223" s="28"/>
     </row>
     <row r="224" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="C224" s="24"/>
-      <c r="D224" s="24"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="24"/>
-      <c r="G224" s="24" t="s">
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28" t="s">
         <v>843</v>
       </c>
-      <c r="H224" s="24"/>
-      <c r="I224" s="24"/>
-      <c r="J224" s="24"/>
-      <c r="K224" s="24"/>
+      <c r="H224" s="28"/>
+      <c r="I224" s="28"/>
+      <c r="J224" s="28"/>
+      <c r="K224" s="28"/>
     </row>
     <row r="225" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="28" t="s">
         <v>848</v>
       </c>
-      <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="24"/>
-      <c r="G225" s="24" t="s">
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="H225" s="24"/>
-      <c r="I225" s="24"/>
-      <c r="J225" s="24"/>
-      <c r="K225" s="24"/>
+      <c r="H225" s="28"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="28"/>
+      <c r="K225" s="28"/>
     </row>
     <row r="226" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="24" t="s">
+      <c r="B226" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="C226" s="24"/>
-      <c r="D226" s="24"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="24" t="s">
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28" t="s">
         <v>845</v>
       </c>
-      <c r="H226" s="24"/>
-      <c r="I226" s="24"/>
-      <c r="J226" s="24"/>
-      <c r="K226" s="24"/>
+      <c r="H226" s="28"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="28"/>
     </row>
     <row r="228" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
@@ -10336,94 +10266,94 @@
       <c r="M286" s="26"/>
     </row>
     <row r="287" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="24" t="s">
+      <c r="B287" s="28" t="s">
         <v>878</v>
       </c>
-      <c r="C287" s="24"/>
-      <c r="D287" s="24"/>
-      <c r="E287" s="24"/>
-      <c r="F287" s="24"/>
-      <c r="G287" s="24"/>
-      <c r="H287" s="24" t="s">
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
+      <c r="H287" s="28" t="s">
         <v>883</v>
       </c>
-      <c r="I287" s="24"/>
-      <c r="J287" s="24"/>
-      <c r="K287" s="24"/>
-      <c r="L287" s="24"/>
-      <c r="M287" s="24"/>
+      <c r="I287" s="28"/>
+      <c r="J287" s="28"/>
+      <c r="K287" s="28"/>
+      <c r="L287" s="28"/>
+      <c r="M287" s="28"/>
     </row>
     <row r="288" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="24" t="s">
+      <c r="B288" s="28" t="s">
         <v>879</v>
       </c>
-      <c r="C288" s="24"/>
-      <c r="D288" s="24"/>
-      <c r="E288" s="24"/>
-      <c r="F288" s="24"/>
-      <c r="G288" s="24"/>
-      <c r="H288" s="24" t="s">
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
+      <c r="H288" s="28" t="s">
         <v>884</v>
       </c>
-      <c r="I288" s="24"/>
-      <c r="J288" s="24"/>
-      <c r="K288" s="24"/>
-      <c r="L288" s="24"/>
-      <c r="M288" s="24"/>
+      <c r="I288" s="28"/>
+      <c r="J288" s="28"/>
+      <c r="K288" s="28"/>
+      <c r="L288" s="28"/>
+      <c r="M288" s="28"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B289" s="24" t="s">
+      <c r="B289" s="28" t="s">
         <v>880</v>
       </c>
-      <c r="C289" s="24"/>
-      <c r="D289" s="24"/>
-      <c r="E289" s="24"/>
-      <c r="F289" s="24"/>
-      <c r="G289" s="24"/>
-      <c r="H289" s="24" t="s">
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
+      <c r="H289" s="28" t="s">
         <v>885</v>
       </c>
-      <c r="I289" s="24"/>
-      <c r="J289" s="24"/>
-      <c r="K289" s="24"/>
-      <c r="L289" s="24"/>
-      <c r="M289" s="24"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="28"/>
+      <c r="L289" s="28"/>
+      <c r="M289" s="28"/>
     </row>
     <row r="290" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="24" t="s">
+      <c r="B290" s="28" t="s">
         <v>881</v>
       </c>
-      <c r="C290" s="24"/>
-      <c r="D290" s="24"/>
-      <c r="E290" s="24"/>
-      <c r="F290" s="24"/>
-      <c r="G290" s="24"/>
-      <c r="H290" s="24" t="s">
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
+      <c r="H290" s="28" t="s">
         <v>886</v>
       </c>
-      <c r="I290" s="24"/>
-      <c r="J290" s="24"/>
-      <c r="K290" s="24"/>
-      <c r="L290" s="24"/>
-      <c r="M290" s="24"/>
+      <c r="I290" s="28"/>
+      <c r="J290" s="28"/>
+      <c r="K290" s="28"/>
+      <c r="L290" s="28"/>
+      <c r="M290" s="28"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B291" s="24" t="s">
+      <c r="B291" s="28" t="s">
         <v>882</v>
       </c>
-      <c r="C291" s="24"/>
-      <c r="D291" s="24"/>
-      <c r="E291" s="24"/>
-      <c r="F291" s="24"/>
-      <c r="G291" s="24"/>
-      <c r="H291" s="24" t="s">
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="E291" s="28"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
+      <c r="H291" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="I291" s="24"/>
-      <c r="J291" s="24"/>
-      <c r="K291" s="24"/>
-      <c r="L291" s="24"/>
-      <c r="M291" s="24"/>
+      <c r="I291" s="28"/>
+      <c r="J291" s="28"/>
+      <c r="K291" s="28"/>
+      <c r="L291" s="28"/>
+      <c r="M291" s="28"/>
     </row>
     <row r="293" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17">
@@ -10487,30 +10417,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:K223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="B286:G286"/>
-    <mergeCell ref="H286:M286"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="H287:M287"/>
     <mergeCell ref="B291:G291"/>
     <mergeCell ref="H291:M291"/>
     <mergeCell ref="B288:G288"/>
@@ -10519,554 +10425,32 @@
     <mergeCell ref="H289:M289"/>
     <mergeCell ref="B290:G290"/>
     <mergeCell ref="H290:M290"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="B286:G286"/>
+    <mergeCell ref="H286:M286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="H287:M287"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:K223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="G206:K206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A913EE-0579-4239-BF52-E67908C95A5B}">
-  <dimension ref="C3:D68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="71.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="47">
-        <v>2</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="47">
-        <v>3</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="47">
-        <v>4</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="47">
-        <v>5</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="47">
-        <v>6</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="47">
-        <v>7</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="47">
-        <v>8</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="47">
-        <v>9</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="47">
-        <v>10</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="47">
-        <v>11</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="47">
-        <v>12</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="47">
-        <v>13</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="47">
-        <v>14</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="47">
-        <v>15</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="47">
-        <v>16</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="47">
-        <v>17</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="47">
-        <v>18</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="47">
-        <v>19</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="47">
-        <v>20</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="47">
-        <v>21</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="47">
-        <v>22</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="47">
-        <v>23</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="47">
-        <v>24</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="47">
-        <v>25</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="47">
-        <v>26</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="47">
-        <v>27</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="47">
-        <v>28</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="47">
-        <v>29</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="47">
-        <v>30</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="47">
-        <v>31</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="47">
-        <v>32</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="47">
-        <v>33</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="47">
-        <v>34</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="47">
-        <v>35</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="47">
-        <v>36</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="47">
-        <v>37</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="47">
-        <v>38</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="47">
-        <v>39</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="47">
-        <v>40</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="47">
-        <v>41</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="47">
-        <v>42</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="47">
-        <v>43</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="47">
-        <v>44</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="47">
-        <v>45</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="47">
-        <v>46</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="47">
-        <v>47</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="47">
-        <v>48</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="47">
-        <v>49</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="47">
-        <v>50</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="47">
-        <v>51</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="47">
-        <v>52</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="47">
-        <v>53</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="47">
-        <v>54</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="47">
-        <v>55</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="47">
-        <v>56</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="47">
-        <v>57</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="47">
-        <v>58</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="47">
-        <v>59</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="47">
-        <v>60</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="47">
-        <v>61</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="47">
-        <v>62</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="47">
-        <v>63</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="47">
-        <v>64</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="47">
-        <v>65</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="47">
-        <v>66</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>725</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>